--- a/data/trans_orig/iP30A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A3202D-27C8-46C3-928C-B0271803A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B08804C-D443-4C38-8580-5B78083646A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{543967DC-DCD6-457A-B233-67A617454D90}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E28D1E-F075-42FC-998A-8A7B75BD8F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,57 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,57 +237,6 @@
   </si>
   <si>
     <t>82,51%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
   </si>
   <si>
     <t>18,8%</t>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE5BCE-A67B-4BF8-83A4-6964618A5533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F67ADD2-89E6-43DC-9995-806671DCE91F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>82916</v>
+        <v>35994</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,34 +970,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>67790</v>
+        <v>26839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>62833</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>199</v>
-      </c>
-      <c r="N7" s="7">
-        <v>150706</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,49 +1006,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="D8" s="7">
-        <v>319365</v>
+        <v>168480</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>242</v>
+      </c>
+      <c r="I8" s="7">
+        <v>171428</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>366</v>
-      </c>
-      <c r="I8" s="7">
-        <v>281824</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7">
+        <v>464</v>
+      </c>
+      <c r="N8" s="7">
+        <v>339908</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>740</v>
-      </c>
-      <c r="N8" s="7">
-        <v>601188</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1104,55 +1104,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>35994</v>
+        <v>82916</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>95</v>
+      </c>
+      <c r="I10" s="7">
+        <v>67790</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>39</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26839</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>199</v>
+      </c>
+      <c r="N10" s="7">
+        <v>150706</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <v>87</v>
-      </c>
-      <c r="N10" s="7">
-        <v>62833</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,40 +1161,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="D11" s="7">
-        <v>168480</v>
+        <v>319365</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>366</v>
+      </c>
+      <c r="I11" s="7">
+        <v>281824</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>242</v>
-      </c>
-      <c r="I11" s="7">
-        <v>171428</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="7">
-        <v>464</v>
+        <v>740</v>
       </c>
       <c r="N11" s="7">
-        <v>339908</v>
+        <v>601188</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B08804C-D443-4C38-8580-5B78083646A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E744C9DF-E3C3-4036-BAE2-D867A6AD125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E28D1E-F075-42FC-998A-8A7B75BD8F5F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE1DC9B5-0A3E-4C3D-9750-437762EA3248}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si toman verduras frescas o cocinadas una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,232 +65,286 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +355,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,39 +451,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,13 +646,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -607,6 +654,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -671,19 +725,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F67ADD2-89E6-43DC-9995-806671DCE91F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1027EE5-7519-43D2-8939-4B6D8A39A3C1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -800,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>14463</v>
+        <v>36089</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -815,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>15185</v>
+        <v>41438</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -830,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="N4" s="7">
-        <v>29648</v>
+        <v>77525</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -851,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>88116</v>
+        <v>7055</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -866,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>77542</v>
+        <v>4855</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -881,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>165658</v>
+        <v>11911</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -902,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -917,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -932,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="D7" s="7">
-        <v>35994</v>
+        <v>152640</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,34 +1044,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="I7" s="7">
-        <v>26839</v>
+        <v>136318</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>87</v>
+        <v>461</v>
       </c>
       <c r="N7" s="7">
-        <v>62833</v>
+        <v>288958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,49 +1080,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>168480</v>
+        <v>22077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>171428</v>
+        <v>22447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>464</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>339908</v>
+        <v>44524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1057,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1104,46 +1178,46 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="D10" s="7">
-        <v>82916</v>
+        <v>172740</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>67790</v>
+        <v>153442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>199</v>
+        <v>409</v>
       </c>
       <c r="N10" s="7">
-        <v>150706</v>
+        <v>326182</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1161,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>319365</v>
+        <v>29738</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22671</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>366</v>
-      </c>
-      <c r="I11" s="7">
-        <v>281824</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="7">
+        <v>67</v>
+      </c>
+      <c r="N11" s="7">
+        <v>52409</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="7">
-        <v>740</v>
-      </c>
-      <c r="N11" s="7">
-        <v>601188</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1259,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="D13" s="7">
-        <v>133373</v>
+        <v>233281</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>270</v>
+      </c>
+      <c r="I13" s="7">
+        <v>209458</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="7">
-        <v>163</v>
-      </c>
-      <c r="I13" s="7">
-        <v>109814</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>542</v>
+      </c>
+      <c r="N13" s="7">
+        <v>442739</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="7">
-        <v>343</v>
-      </c>
-      <c r="N13" s="7">
-        <v>243187</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>760</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>575961</v>
+        <v>55713</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>71</v>
+      </c>
+      <c r="I14" s="7">
+        <v>49980</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>752</v>
-      </c>
-      <c r="I14" s="7">
-        <v>530795</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>140</v>
+      </c>
+      <c r="N14" s="7">
+        <v>105694</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>1512</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1106755</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,55 +1441,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>784</v>
+      </c>
+      <c r="D16" s="7">
+        <v>594749</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>769</v>
+      </c>
+      <c r="I16" s="7">
+        <v>540656</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1553</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1135405</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>114584</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>146</v>
+      </c>
+      <c r="I17" s="7">
+        <v>99953</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7">
+        <v>302</v>
+      </c>
+      <c r="N17" s="7">
+        <v>214537</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
